--- a/biology/Microbiologie/Salmonella_enterica_subsp._enterica/Salmonella_enterica_subsp._enterica.xlsx
+++ b/biology/Microbiologie/Salmonella_enterica_subsp._enterica/Salmonella_enterica_subsp._enterica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salmonella enterica subsp. enterica est une sous-espèce de Salmonella enterica, une bactérie le plus souvent flagellée classée parmi les bacilles à Gram négatif. La plupart des sérovars pathogènes de S. enterica appartiennent à cette sous-espèce.
 </t>
@@ -511,31 +523,33 @@
           <t>Liste des variétés et non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon NCBI  (5 janvier 2022)[2] : 
+Selon NCBI  (5 janvier 2022) : 
 variété Salmonella enterica subsp. enterica serovar Uganda var. 15+
 non-classé Salmonella enterica subsp. enterica serovar -:r:1,5
 non-classé Salmonella enterica subsp. enterica serovar 1,3,19:g,m,t:-
 non-classé Salmonella enterica subsp. enterica serovar 1,4,12:i:-
-non-classé Salmonella enterica subsp. enterica serovar 1,4,[5],12:i:-
+non-classé Salmonella enterica subsp. enterica serovar 1,412:i:-
 non-classé Salmonella enterica subsp. enterica serovar 11:r:-
 non-classé Salmonella enterica subsp. enterica serovar 13,23:b:-
 non-classé Salmonella enterica subsp. enterica serovar 13,23:i:-
 non-classé Salmonella enterica subsp. enterica serovar 16:b:-
 non-classé Salmonella enterica subsp. enterica serovar 16:l,v:- 2
 non-classé Salmonella enterica subsp. enterica serovar 2,12:-:1,5
-non-classé Salmonella enterica subsp. enterica serovar 3,10[15][15,34]:e,h:-
-non-classé Salmonella enterica subsp. enterica serovar 3,[10],[15]:r:-
+non-classé Salmonella enterica subsp. enterica serovar 3,10[15,34]:e,h:-
+non-classé Salmonella enterica subsp. enterica serovar 3:r:-
 non-classé Salmonella enterica subsp. enterica serovar 4,5,12,27:-
 non-classé Salmonella enterica subsp. enterica serovar 4,5,12:r:-
-non-classé Salmonella enterica subsp. enterica serovar 4,[5],12,[27]:-
-non-classé Salmonella enterica subsp. enterica serovar 4,[5],12,[27]:-:1,2
-non-classé Salmonella enterica subsp. enterica serovar 4,[5],12,[27]:d:-
-non-classé Salmonella enterica subsp. enterica serovar 4,[5],12,[27]:e,h:-
-non-classé Salmonella enterica subsp. enterica serovar 4,[5],12:d:-
-non-classé Salmonella enterica subsp. enterica serovar 4,[5],12:i-
+non-classé Salmonella enterica subsp. enterica serovar 412,:-
+non-classé Salmonella enterica subsp. enterica serovar 412,:-:1,2
+non-classé Salmonella enterica subsp. enterica serovar 412,:d:-
+non-classé Salmonella enterica subsp. enterica serovar 412,:e,h:-
+non-classé Salmonella enterica subsp. enterica serovar 412:d:-
+non-classé Salmonella enterica subsp. enterica serovar 412:i-
 non-classé Salmonella enterica subsp. enterica serovar 44:z10:1,7
 non-classé Salmonella enterica subsp. enterica serovar 47:z4,z23:-
 non-classé Salmonella enterica subsp. enterica serovar 4:-:1,2
@@ -546,13 +560,13 @@
 non-classé Salmonella enterica subsp. enterica serovar 51:z:1,5
 non-classé Salmonella enterica subsp. enterica serovar 6,14:r:1,5
 non-classé Salmonella enterica subsp. enterica serovar 6,7,14:k:-
-non-classé Salmonella enterica subsp. enterica serovar 6,7,[14]:-:1,5
-non-classé Salmonella enterica subsp. enterica serovar 6,7,[14]:r:-
+non-classé Salmonella enterica subsp. enterica serovar 6,7,:-:1,5
+non-classé Salmonella enterica subsp. enterica serovar 6,7,:r:-
 non-classé Salmonella enterica subsp. enterica serovar 6,7:e,h:-
 non-classé Salmonella enterica subsp. enterica serovar 6,7:g,m,s:e,n,z15
 non-classé Salmonella enterica subsp. enterica serovar 6,8,20:-:1,5
 non-classé Salmonella enterica subsp. enterica serovar 6,8,20:d-
-non-classé Salmonella enterica subsp. enterica serovar 6,8,[20]:e,h-
+non-classé Salmonella enterica subsp. enterica serovar 6,8,:e,h-
 non-classé Salmonella enterica subsp. enterica serovar 6,8:d:-
 non-classé Salmonella enterica subsp. enterica serovar 7:d:z35
 non-classé Salmonella enterica subsp. enterica serovar 8:i:-
@@ -639,8 +653,8 @@
 non-classé Salmonella enterica subsp. enterica serovar Yoruba
 non-classé Salmonella enterica subsp. enterica serovar Zega
 non-classé Salmonella enterica subsp. enterica serovar Zongo
-non-classé Salmonella enterica subsp. enterica serovar [1],13,23:g,z51:-
-non-classé Salmonella enterica subsp. enterica serovar [5],12,[27]:d:-
+non-classé Salmonella enterica subsp. enterica serovar ,13,23:g,z51:-
+non-classé Salmonella enterica subsp. enterica serovar ,12,:d:-
 </t>
         </is>
       </c>
